--- a/data/Game/Collectible.xlsx
+++ b/data/Game/Collectible.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06DCB5A-5EE4-4668-AC09-981153ED3F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92319EE5-1A9C-47AF-A59C-BD436E3BA69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collectible" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collectible!$A$2:$I$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collectible!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1015,6 +1015,9 @@
     <t>Xương</t>
   </si>
   <si>
+    <t>Bó củi</t>
+  </si>
+  <si>
     <t>Chổi</t>
   </si>
   <si>
@@ -1024,9 +1027,15 @@
     <t>Phân</t>
   </si>
   <si>
+    <t>Bãi nôn</t>
+  </si>
+  <si>
     <t>Tờ rơi</t>
   </si>
   <si>
+    <t>Món ăn thiu</t>
+  </si>
+  <si>
     <t>Dưa hấu</t>
   </si>
   <si>
@@ -1057,9 +1066,15 @@
     <t>Dơi</t>
   </si>
   <si>
+    <t>Tạp chí R18</t>
+  </si>
+  <si>
     <t>Hóa đơn vàng</t>
   </si>
   <si>
+    <t>Xu vàng</t>
+  </si>
+  <si>
     <t>Tinh thể đất</t>
   </si>
   <si>
@@ -1075,6 +1090,21 @@
     <t>Chuông</t>
   </si>
   <si>
+    <t>Ngựa hoàng kim</t>
+  </si>
+  <si>
+    <t>Nấm hỗn loạn hoàng kim</t>
+  </si>
+  <si>
+    <t>Putty hoàng kim</t>
+  </si>
+  <si>
+    <t>Em gái dát vàng</t>
+  </si>
+  <si>
+    <t>Todo hoàng kim</t>
+  </si>
+  <si>
     <t>Gấu nhồi bông</t>
   </si>
   <si>
@@ -1090,15 +1120,24 @@
     <t>Bản đồ</t>
   </si>
   <si>
+    <t>Mũ lông vũ</t>
+  </si>
+  <si>
     <t>Mũ phù thủy</t>
   </si>
   <si>
+    <t>Cuộn</t>
+  </si>
+  <si>
     <t>Mìn</t>
   </si>
   <si>
     <t>Niềm tự hào Palmia</t>
   </si>
   <si>
+    <t>Cung phong linh</t>
+  </si>
+  <si>
     <t>Dao găm may mắn</t>
   </si>
   <si>
@@ -1114,6 +1153,12 @@
     <t>Tiên</t>
   </si>
   <si>
+    <t>Ám Thiên Sứ</t>
+  </si>
+  <si>
+    <t>Kỵ sĩ hoàng kim</t>
+  </si>
+  <si>
     <t>Kim cương</t>
   </si>
   <si>
@@ -1123,9 +1168,18 @@
     <t>Đá nổi</t>
   </si>
   <si>
+    <t>Bí ngô hoàng kim</t>
+  </si>
+  <si>
+    <t>Chó mìn</t>
+  </si>
+  <si>
     <t>Tranh chân dung</t>
   </si>
   <si>
+    <t>Tranh phong cảnh</t>
+  </si>
+  <si>
     <t>Đàn hạc</t>
   </si>
   <si>
@@ -1154,60 +1208,6 @@
   </si>
   <si>
     <t>Nấm hỗn loạn</t>
-  </si>
-  <si>
-    <t>Cuộn</t>
-  </si>
-  <si>
-    <t>Bó củi</t>
-  </si>
-  <si>
-    <t>Bãi nôn</t>
-  </si>
-  <si>
-    <t>Món ăn thiu</t>
-  </si>
-  <si>
-    <t>Tạp chí R18</t>
-  </si>
-  <si>
-    <t>Xu vàng</t>
-  </si>
-  <si>
-    <t>Ngựa hoàng kim</t>
-  </si>
-  <si>
-    <t>Nấm hỗn loạn hoàng kim</t>
-  </si>
-  <si>
-    <t>Putty hoàng kim</t>
-  </si>
-  <si>
-    <t>Em gái dát vàng</t>
-  </si>
-  <si>
-    <t>Todo hoàng kim</t>
-  </si>
-  <si>
-    <t>Mũ lông vũ</t>
-  </si>
-  <si>
-    <t>Cung phong linh</t>
-  </si>
-  <si>
-    <t>Ám Thiên Sứ</t>
-  </si>
-  <si>
-    <t>Kỵ sĩ hoàng kim</t>
-  </si>
-  <si>
-    <t>Bí ngô hoàng kim</t>
-  </si>
-  <si>
-    <t>Chó mìn</t>
-  </si>
-  <si>
-    <t>Tranh phong cảnh</t>
   </si>
 </sst>
 </file>
@@ -1568,18 +1568,16 @@
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="9" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1648,7 +1646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1668,7 +1666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1688,7 +1686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1708,7 +1706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1728,7 +1726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1748,7 +1746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1759,7 +1757,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
@@ -1768,7 +1766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1779,7 +1777,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -1788,7 +1786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1799,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -1808,7 +1806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1819,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
@@ -1828,7 +1826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1839,7 +1837,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
@@ -1848,7 +1846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1859,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
@@ -1868,7 +1866,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1879,7 +1877,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="E16" t="s">
         <v>50</v>
@@ -1888,7 +1886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1899,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
@@ -1908,7 +1906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1919,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
@@ -1928,7 +1926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1939,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -1948,7 +1946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -1959,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -1968,7 +1966,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1979,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E21" t="s">
         <v>65</v>
@@ -1988,7 +1986,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1999,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E22" t="s">
         <v>68</v>
@@ -2008,7 +2006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -2028,7 +2026,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -2039,7 +2037,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E24" t="s">
         <v>74</v>
@@ -2048,7 +2046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -2059,7 +2057,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -2068,7 +2066,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -2079,7 +2077,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E26" t="s">
         <v>80</v>
@@ -2088,7 +2086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -2099,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
@@ -2108,7 +2106,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -2116,7 +2114,7 @@
         <v>319</v>
       </c>
       <c r="D28" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="E28" t="s">
         <v>86</v>
@@ -2125,7 +2123,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2136,7 +2134,7 @@
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E29" t="s">
         <v>90</v>
@@ -2145,7 +2143,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -2156,7 +2154,7 @@
         <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="E30" t="s">
         <v>93</v>
@@ -2165,7 +2163,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E31" t="s">
         <v>96</v>
@@ -2185,7 +2183,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -2196,7 +2194,7 @@
         <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E32" t="s">
         <v>99</v>
@@ -2205,7 +2203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -2216,7 +2214,7 @@
         <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E33" t="s">
         <v>102</v>
@@ -2225,7 +2223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -2236,7 +2234,7 @@
         <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E34" t="s">
         <v>105</v>
@@ -2245,7 +2243,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -2256,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E35" t="s">
         <v>108</v>
@@ -2265,7 +2263,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -2285,7 +2283,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -2296,7 +2294,7 @@
         <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="E37" t="s">
         <v>114</v>
@@ -2305,7 +2303,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -2316,7 +2314,7 @@
         <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="E38" t="s">
         <v>117</v>
@@ -2325,7 +2323,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -2336,7 +2334,7 @@
         <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="E39" t="s">
         <v>120</v>
@@ -2345,7 +2343,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -2365,7 +2363,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -2376,7 +2374,7 @@
         <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="E41" t="s">
         <v>126</v>
@@ -2385,7 +2383,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -2396,7 +2394,7 @@
         <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="E42" t="s">
         <v>129</v>
@@ -2405,7 +2403,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -2422,7 +2420,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -2442,7 +2440,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -2453,7 +2451,7 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E45" t="s">
         <v>138</v>
@@ -2462,7 +2460,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -2473,7 +2471,7 @@
         <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E46" t="s">
         <v>141</v>
@@ -2482,7 +2480,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>143</v>
       </c>
@@ -2493,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E47" t="s">
         <v>144</v>
@@ -2502,7 +2500,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>146</v>
       </c>
@@ -2513,7 +2511,7 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="E48" t="s">
         <v>147</v>
@@ -2522,7 +2520,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -2533,7 +2531,7 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E49" t="s">
         <v>150</v>
@@ -2542,7 +2540,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -2553,7 +2551,7 @@
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="E50" t="s">
         <v>153</v>
@@ -2562,7 +2560,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E51" t="s">
         <v>156</v>
@@ -2582,7 +2580,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -2593,7 +2591,7 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E52" t="s">
         <v>159</v>
@@ -2602,7 +2600,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -2613,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E53" t="s">
         <v>162</v>
@@ -2622,7 +2620,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -2633,7 +2631,7 @@
         <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="E54" t="s">
         <v>165</v>
@@ -2642,7 +2640,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="E55" t="s">
         <v>168</v>
@@ -2662,7 +2660,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -2673,7 +2671,7 @@
         <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="E56" t="s">
         <v>171</v>
@@ -2682,7 +2680,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -2693,7 +2691,7 @@
         <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -2702,7 +2700,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -2722,7 +2720,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -2742,7 +2740,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -2779,7 +2777,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -2799,7 +2797,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>191</v>
       </c>
@@ -2819,7 +2817,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -2827,7 +2825,7 @@
         <v>319</v>
       </c>
       <c r="D64" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="E64" t="s">
         <v>195</v>
@@ -2836,7 +2834,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -2844,7 +2842,7 @@
         <v>319</v>
       </c>
       <c r="D65" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="E65" t="s">
         <v>198</v>
@@ -2853,7 +2851,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -2861,7 +2859,7 @@
         <v>319</v>
       </c>
       <c r="D66" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="E66" t="s">
         <v>201</v>
@@ -2870,7 +2868,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -2881,7 +2879,7 @@
         <v>89</v>
       </c>
       <c r="D67" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E67" t="s">
         <v>204</v>
@@ -2890,7 +2888,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>206</v>
       </c>
@@ -2907,7 +2905,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -2918,7 +2916,7 @@
         <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="E69" t="s">
         <v>210</v>
@@ -2927,7 +2925,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>212</v>
       </c>
@@ -2947,7 +2945,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -2958,7 +2956,7 @@
         <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="E71" t="s">
         <v>216</v>
@@ -2967,7 +2965,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>218</v>
       </c>
@@ -2975,7 +2973,7 @@
         <v>319</v>
       </c>
       <c r="D72" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="E72" t="s">
         <v>219</v>
@@ -2984,7 +2982,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -2995,7 +2993,7 @@
         <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="E73" t="s">
         <v>222</v>
@@ -3004,7 +3002,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>224</v>
       </c>
@@ -3015,7 +3013,7 @@
         <v>89</v>
       </c>
       <c r="D74" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E74" t="s">
         <v>225</v>
@@ -3024,7 +3022,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>227</v>
       </c>
@@ -3032,7 +3030,7 @@
         <v>319</v>
       </c>
       <c r="D75" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E75" t="s">
         <v>228</v>
@@ -3041,7 +3039,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -3061,7 +3059,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>233</v>
       </c>
@@ -3081,7 +3079,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>236</v>
       </c>
@@ -3092,7 +3090,7 @@
         <v>89</v>
       </c>
       <c r="D78" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="E78" t="s">
         <v>237</v>
@@ -3101,7 +3099,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>239</v>
       </c>
@@ -3112,7 +3110,7 @@
         <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E79" t="s">
         <v>240</v>
@@ -3121,7 +3119,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>242</v>
       </c>
@@ -3141,7 +3139,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>245</v>
       </c>
@@ -3161,7 +3159,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>251</v>
       </c>
@@ -3201,7 +3199,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>254</v>
       </c>
@@ -3221,7 +3219,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>257</v>
       </c>
@@ -3241,7 +3239,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>260</v>
       </c>
@@ -3261,7 +3259,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>263</v>
       </c>
@@ -3281,7 +3279,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>266</v>
       </c>
@@ -3301,7 +3299,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>269</v>
       </c>
@@ -3321,7 +3319,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -3341,7 +3339,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>275</v>
       </c>
@@ -3361,7 +3359,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>278</v>
       </c>
@@ -3372,7 +3370,7 @@
         <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="E92" t="s">
         <v>279</v>
@@ -3381,7 +3379,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>281</v>
       </c>
@@ -3392,7 +3390,7 @@
         <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="E93" t="s">
         <v>282</v>
@@ -3401,7 +3399,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>284</v>
       </c>
@@ -3412,7 +3410,7 @@
         <v>89</v>
       </c>
       <c r="D94" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="E94" t="s">
         <v>285</v>
@@ -3421,7 +3419,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>287</v>
       </c>
@@ -3432,7 +3430,7 @@
         <v>89</v>
       </c>
       <c r="D95" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="E95" t="s">
         <v>288</v>
@@ -3441,7 +3439,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>290</v>
       </c>
@@ -3449,7 +3447,7 @@
         <v>319</v>
       </c>
       <c r="D96" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="E96" t="s">
         <v>291</v>
@@ -3458,7 +3456,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>293</v>
       </c>
@@ -3466,7 +3464,7 @@
         <v>319</v>
       </c>
       <c r="D97" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="E97" t="s">
         <v>294</v>
@@ -3475,7 +3473,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>296</v>
       </c>
@@ -3483,7 +3481,7 @@
         <v>319</v>
       </c>
       <c r="D98" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="E98" t="s">
         <v>297</v>
@@ -3492,7 +3490,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>299</v>
       </c>
@@ -3503,7 +3501,7 @@
         <v>89</v>
       </c>
       <c r="D99" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="E99" t="s">
         <v>300</v>
@@ -3512,7 +3510,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>302</v>
       </c>
@@ -3532,7 +3530,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>305</v>
       </c>
@@ -3552,7 +3550,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>306</v>
       </c>
@@ -3572,7 +3570,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>307</v>
       </c>
@@ -3580,7 +3578,7 @@
         <v>319</v>
       </c>
       <c r="D103" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="E103" t="s">
         <v>308</v>
@@ -3589,7 +3587,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>310</v>
       </c>
@@ -3600,7 +3598,7 @@
         <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="E104" t="s">
         <v>311</v>
@@ -3609,7 +3607,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>313</v>
       </c>
@@ -3629,7 +3627,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>316</v>
       </c>
@@ -3650,7 +3648,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:I2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Game/Collectible.xlsx
+++ b/data/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>
